--- a/Addons/LCD 3.3V/LCD_BOM.xlsx
+++ b/Addons/LCD 3.3V/LCD_BOM.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_Schematic1_2024-12-1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_LCD Add-on_2024-12-3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>No.</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>C17414</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>MIC5504-3.3YM5-T5</t>
@@ -507,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -681,7 +702,7 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -693,23 +714,55 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
